--- a/doc/登録 外部設計.xlsx
+++ b/doc/登録 外部設計.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF876AD-33CE-467B-B7A4-7A2D38852CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610C52B-4CE2-4220-8F8A-5B3E525D9AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7789B331-FBA3-4C40-806E-1CEF3606522A}"/>
   </bookViews>
   <sheets>
     <sheet name="登録" sheetId="1" r:id="rId1"/>
     <sheet name="検索" sheetId="2" r:id="rId2"/>
-    <sheet name="更新・削除" sheetId="3" r:id="rId3"/>
+    <sheet name="更新・削除" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13728,7 +13728,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD57F35-57BC-441F-9723-DE97463114E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4966EA8F-470C-4B78-843F-FE72ECCDDDDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13796,7 +13796,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2175F90B-9945-4912-974F-9FD127A35543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A21991-58D1-4253-80D6-21EE578EBD18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13871,7 +13871,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C417BCC-3D55-4DC5-9ED9-1AA1C1A631CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECA6120-5402-4D73-9232-A59A0E67BA12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13939,7 +13939,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2DDBF1-A9B1-46DE-9438-8974FCE426D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2DDD57-8787-43EB-855F-BDF93D38D3F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14007,7 +14007,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A47ECB-ACF9-4D84-8760-D9F82108681C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A386D3-BFB7-4F44-A2FA-D89942064AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14072,10 +14072,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2AB84B-0AF1-4B5A-BF11-FD0025DE850C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F1757D-9B82-40E4-B33F-AEE224216563}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14142,10 +14142,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E190F8-983C-430C-BFDB-69B05D4F083B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B949E9-5B8E-4F24-B89D-8A332799C285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14199,10 +14199,10 @@
     <xdr:ext cx="1200150" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72838FAD-58B9-4C33-927C-E385509A1851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B62011C-59BA-42B8-BEC1-2D5F07CE2CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14256,10 +14256,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8E4EE4-D04D-4EDF-9827-9AA900D0476C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B1C890-5A2E-42A6-8C5F-3317EBF4E36C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14313,10 +14313,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15C193B-5289-4623-8F02-BFE5EF3B4C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD87FA-E3EA-4C4C-B9D0-B38D1C621AB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14370,10 +14370,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC711436-5BB4-442D-84E1-80D05CA30721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2A083A-29CE-4648-9C09-09F8FB4F94FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14445,10 +14445,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13">
+        <xdr:cNvPr id="13" name="楕円 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6BA375-DD39-4332-AC17-1AC4280DCB60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D802115-C290-439E-BA05-8A1BEBA4AF1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14513,10 +14513,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="楕円 14">
+        <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139EC165-65E2-4D85-869D-EFB940990497}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C317A6FF-B6A6-40B7-9586-C45DB4494F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14576,10 +14576,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9531ED-5B12-4EAD-BF6E-EE367D744B99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE50160-E81D-4B2C-85A2-926C383A8FBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14646,10 +14646,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D57B14-0279-4661-8D67-C20381FE20DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA970883-E9F0-4938-A79B-CABC6948118C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14721,10 +14721,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円 17">
+        <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B370D12C-3831-40CD-9A4F-845F7A5CC28D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8B8CB6-1DFD-4762-A479-9BEC48524FD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14789,10 +14789,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18">
+        <xdr:cNvPr id="18" name="楕円 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF52F75B-C409-48BF-80CC-2A7BAC23E735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6489E3E0-8596-4A42-B0FC-FDB5F0926993}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14857,10 +14857,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19">
+        <xdr:cNvPr id="19" name="楕円 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB0F800-4B5B-4A1B-A52F-A0CDF0A4B6A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A61900-FC10-403F-9FFD-657A80ED3C38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14925,10 +14925,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円 20">
+        <xdr:cNvPr id="20" name="楕円 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66C2E93-DD9C-4EEA-8D6F-CCAFAFFC06DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C7CA78-828F-4BF1-97D0-617B0B5F2DE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14988,10 +14988,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE50110-64B1-4A61-800A-AABC8D4A8821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CCD0FE-BE2A-418A-ACD3-64910E5E9E6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15058,10 +15058,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA12645-3AAC-4708-97C2-3DA1E52BAA85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C539068-C54A-4043-A1BD-6088083A10C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15128,10 +15128,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1F64BF-B9B0-4095-BEBB-84303BF4A2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E872787B-2912-4123-B50D-BCDAB7CD4D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15198,10 +15198,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FDF9E0-7675-4977-8CE1-312BD25AEABA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAA284E-BC85-445F-9EE3-35486E5339F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15268,10 +15268,10 @@
     <xdr:ext cx="2590800" cy="779059"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571E7535-BD59-444A-B3D9-92633FD081D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D02AC9B-BB94-4807-820D-0C33184257AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15325,10 +15325,10 @@
     <xdr:ext cx="800160" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D490CA-F04B-4016-9E76-C394F91839E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76A8E90-17BD-405E-B079-5BCE247DA8F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15400,10 +15400,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEE93DC-00F9-4B6D-AE50-4C99ED4B21DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F41F07D-210E-4F08-81E1-903484A8B3D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15475,10 +15475,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28">
+        <xdr:cNvPr id="28" name="楕円 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBCE56A-11E6-4A29-9D2D-30B9C043FD17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646B1D29-3BA0-42E0-A784-27F7D71DBE48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15535,10 +15535,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="楕円 29">
+        <xdr:cNvPr id="29" name="楕円 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F39524E-5559-493A-B9AB-4E72D4F9FC7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57ED8A9-E06C-415B-8CBA-E267E6B35ADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15595,10 +15595,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="楕円 30">
+        <xdr:cNvPr id="30" name="楕円 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D8B7AF-F156-4DA7-8C0C-3C6F1C46A78B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38689B63-05E5-4556-B9B7-C5CF58CBE92D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15655,10 +15655,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート: 組合せ 31">
+        <xdr:cNvPr id="31" name="フローチャート: 組合せ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD4381B-681B-4257-B846-2606E919BB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9FEBCD-CF25-4F28-8B88-0C7C828B8C0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15723,10 +15723,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="フローチャート: 組合せ 32">
+        <xdr:cNvPr id="32" name="フローチャート: 組合せ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDDDCCE-DA07-407A-9F1F-F47744A3695C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D2676D-7763-48B6-B129-386FABCA0E5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15791,10 +15791,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="フローチャート: 組合せ 33">
+        <xdr:cNvPr id="33" name="フローチャート: 組合せ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC3F90D-9DE0-46C8-A10B-8D7432E751D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55764115-4D44-48A6-8841-2825A94E9AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15854,10 +15854,10 @@
     <xdr:ext cx="1082348" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AADAC3E-1E77-17C8-470A-D15E005675A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B14B6-775E-4EF9-82A6-D40E840B8244}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15919,7 +15919,7 @@
         <xdr:cNvPr id="35" name="グループ化 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60493838-C45A-481B-A5CE-CC4BB7C8C16A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCE48DB-759F-4FA7-A9B9-DCF1C256FA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15938,7 +15938,7 @@
           <xdr:cNvPr id="36" name="正方形/長方形 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EB536B-03F1-6F79-B44B-C0C51444F579}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F79B3B7-859B-BBEB-644A-95909A3BAA9F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15991,7 +15991,7 @@
           <xdr:cNvPr id="37" name="正方形/長方形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AA892F-E618-4EA3-424E-E8A80C26022E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F729D3-019F-FBDA-6014-A94B04B11692}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16036,7 +16036,7 @@
           <xdr:cNvPr id="38" name="正方形/長方形 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84D7678-FCF7-08E7-C1DF-45D8B86DCCD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D2E637-044D-9316-0F38-1BBEC40013E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16081,7 +16081,7 @@
           <xdr:cNvPr id="39" name="正方形/長方形 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD39112-3DB0-4040-796D-2F44207FA1D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDBABAD-10D1-D82C-2B41-EC7E713B04AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16126,7 +16126,7 @@
           <xdr:cNvPr id="40" name="正方形/長方形 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4967371-E1AD-0D5C-2D6A-B38A32C06A65}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B299496B-F010-30F8-1F0A-E7B648BB3722}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16253,7 +16253,7 @@
           <xdr:cNvPr id="41" name="正方形/長方形 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD8C64D-AF29-91D6-6A2C-031A7F7EAB06}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B87F61-7E32-59BD-CD93-171CC4767537}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16348,7 +16348,7 @@
           <xdr:cNvPr id="42" name="正方形/長方形 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C163005-CDA6-AA0C-6BF1-A0806FE1F7AE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276748D8-8E65-4C6F-A728-14C8C932B98F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16443,7 +16443,7 @@
           <xdr:cNvPr id="43" name="正方形/長方形 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12CDE52-0983-7D7B-2B9E-5D7BF2374F4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86C49A2-AAF2-74CC-9713-B88A4CE9BE60}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16570,7 +16570,7 @@
           <xdr:cNvPr id="44" name="正方形/長方形 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A4CB8A-CC9C-9C0A-0AC0-9ED971FCBA16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D2417C-B546-F3DD-C6BD-A772082B99B9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16631,7 +16631,7 @@
         <xdr:cNvPr id="45" name="グループ化 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC31397-2B7D-416A-91E5-8C54C17DB5FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DB776B-F33E-4F59-8951-89F67363BBFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16650,7 +16650,7 @@
           <xdr:cNvPr id="46" name="正方形/長方形 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7894054-A369-7878-EF78-B9B68B213097}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C341339-CC59-57B4-D767-7304CC72018E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16703,7 +16703,7 @@
           <xdr:cNvPr id="47" name="正方形/長方形 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA5B7A9-BB4A-AE4F-9808-29B3EF2F321F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593C2B62-C227-CE83-FDCF-68281936808C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16748,7 +16748,7 @@
           <xdr:cNvPr id="48" name="正方形/長方形 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCC9D96-19BF-94B5-D0C2-66A3792F33C5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29090DAB-554B-A09C-744F-C6983A48C09C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16793,7 +16793,7 @@
           <xdr:cNvPr id="49" name="正方形/長方形 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601CC2EB-40C0-EE8A-6DD9-77520A13F2F4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC9E01A-E9C9-21AB-9042-4BBEE288D2AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16838,7 +16838,7 @@
           <xdr:cNvPr id="50" name="正方形/長方形 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45488435-513D-56ED-F5A7-D735382C5D2D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E75D97D-4941-E57B-DF36-127B7E95C279}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16883,7 +16883,7 @@
           <xdr:cNvPr id="51" name="正方形/長方形 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7391CE42-79E9-10D8-4BE3-BB3AD54D326C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3DD6E8-E2CF-BDB0-8AC2-C5CFACE55046}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16928,7 +16928,7 @@
           <xdr:cNvPr id="52" name="正方形/長方形 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD23B91-C33D-E0AF-FA4F-5500403A05FF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BDFAF6-C88B-7778-1E85-41316C7362D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16973,7 +16973,7 @@
           <xdr:cNvPr id="53" name="正方形/長方形 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73DC573-D35C-A47B-A77F-DAB59B7C110B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC31F5B-E5C7-2110-2FBC-3BFBA2D51285}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17033,7 +17033,7 @@
           <xdr:cNvPr id="54" name="正方形/長方形 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA195E9C-718F-372E-C87F-96988FBCA044}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AFF9D4-1A4D-DCCC-4B90-690A5D3635EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17093,7 +17093,7 @@
           <xdr:cNvPr id="55" name="正方形/長方形 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4859313-359D-BB01-18E2-1E3A5A06EF19}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51579D31-698A-BA86-9741-869E4C4C0F4B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17153,7 +17153,7 @@
           <xdr:cNvPr id="56" name="正方形/長方形 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C6D2B9-B545-5E63-497C-D3B084C785E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA758672-D6EC-327E-7378-47C1E7E1546A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17213,7 +17213,7 @@
           <xdr:cNvPr id="57" name="正方形/長方形 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3540A12-EA41-3EF2-7F74-8D7FCCD644BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E10AC82-F553-F1D5-227E-13841D7DACDC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17273,7 +17273,7 @@
           <xdr:cNvPr id="58" name="正方形/長方形 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B98D63-5DD1-A4D4-14DB-B62B054CF19D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061D1621-396B-6149-E0DD-BFB573D2147F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17349,7 +17349,7 @@
         <xdr:cNvPr id="59" name="グループ化 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B86F176-63BF-4D5B-A1D6-3E4916378E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7CBECB-6697-4DEC-8283-2BA0AAFF6405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17368,7 +17368,7 @@
           <xdr:cNvPr id="60" name="正方形/長方形 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E7B26F-0883-3ECD-C474-3D97033AE7A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9204FE95-B59C-A752-0468-1BAE6E4A042B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17421,7 +17421,7 @@
           <xdr:cNvPr id="61" name="正方形/長方形 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619143E1-345D-651B-257B-42F0FA496808}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257DE6C8-8693-DD25-E0E7-AD49332F945B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17466,7 +17466,7 @@
           <xdr:cNvPr id="62" name="正方形/長方形 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7672690D-FED3-9819-C6D7-861DB3C0A7D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B17852-9827-C97E-C9D3-BCC8D8496C5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17511,7 +17511,7 @@
           <xdr:cNvPr id="63" name="正方形/長方形 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B56EF6-4398-55BE-BB64-8BA651DEDAE4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F34DD8C-AD58-F348-C9E1-51D138413A31}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17556,7 +17556,7 @@
           <xdr:cNvPr id="64" name="正方形/長方形 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91674470-8AF2-8B5A-8832-5CCAE22D4F41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3378C6-3A4D-9BEB-73EF-90834E732774}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17601,7 +17601,7 @@
           <xdr:cNvPr id="65" name="正方形/長方形 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630631B7-C426-6A9F-0C5E-A3BB19308DDA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F940DBA-633B-2C89-D637-1FDA4D6BCC23}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17646,7 +17646,7 @@
           <xdr:cNvPr id="66" name="正方形/長方形 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02177AB-54E3-ABD4-172B-B03A7A7D2599}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237E667A-10EE-8BF5-17A4-F9A0EF41A0D5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17691,7 +17691,7 @@
           <xdr:cNvPr id="67" name="正方形/長方形 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D4BDD2-09F2-D46A-70AE-D77BB3EB62BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928901D1-C704-A660-214F-2DC621B30E5A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17736,7 +17736,7 @@
           <xdr:cNvPr id="68" name="正方形/長方形 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF34BE4-4D23-5735-CF60-985A72DB95D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB54959C-A41F-910F-4736-F06F39091722}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17781,7 +17781,7 @@
           <xdr:cNvPr id="69" name="正方形/長方形 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A87F503-B087-A3DC-F47F-3031136043AC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2D5AF7-F6CB-CFE7-228A-1D52DA706631}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17826,7 +17826,7 @@
           <xdr:cNvPr id="70" name="正方形/長方形 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2955CC-A83F-FF71-C9B1-6E8952AD9EFE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B42207-03FD-00A8-C02D-BF9A5D61F783}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17886,7 +17886,7 @@
           <xdr:cNvPr id="71" name="正方形/長方形 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7540B3-1E63-15F1-E15A-0D5D73B1A5B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46756C10-9336-BCFF-A7B8-724234CA54A9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17946,7 +17946,7 @@
           <xdr:cNvPr id="72" name="正方形/長方形 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D2B518-9B9E-2BCF-DD6A-C433CF1F48B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469962A0-1C29-CF7B-F37B-C2B5DD7904B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18006,7 +18006,7 @@
           <xdr:cNvPr id="73" name="正方形/長方形 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B564B2C6-8424-D833-F72A-AA1304D021A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7BC629-8238-6DBF-8339-27C282542B19}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18066,7 +18066,7 @@
           <xdr:cNvPr id="74" name="正方形/長方形 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0857C2-1659-9904-3C25-C7415A2DDE5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3E4B3C-71BE-F11B-2F17-8788BAF3D338}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18126,7 +18126,7 @@
           <xdr:cNvPr id="75" name="正方形/長方形 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192B1527-0B41-5E95-294A-7C2B8A4231A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A995448-B1C8-71A0-8498-8D5D0E92D7AC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18186,7 +18186,7 @@
           <xdr:cNvPr id="76" name="正方形/長方形 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9763409D-4B01-CB42-F6AB-C30BEFEA929E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D0C13E-7CFF-4D01-57D1-17E0A008EA16}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18246,7 +18246,7 @@
           <xdr:cNvPr id="77" name="正方形/長方形 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F9C0B9-991E-A6AB-7797-BFB3C2CF615D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2CE96A-2424-D4AF-D81E-41D6B4AEBABA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18306,7 +18306,7 @@
           <xdr:cNvPr id="78" name="正方形/長方形 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C76F735-FE1A-2D34-67B6-5D8BE8379017}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596EF4AE-AECA-A9B1-0832-D6FD9F3A779A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18666,8 +18666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656D08B7-9B24-4298-A7E9-F30D0A852DA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18683,7 +18683,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18695,11 +18695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848DBBEF-4B11-4A9E-9A4C-1C23DF039E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B807482F-1C63-4ADE-B501-CCFA116A6F04}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
